--- a/SQL_CSS.xlsx
+++ b/SQL_CSS.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C0520G1-LeToan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BC74F8-9F8C-400A-ACDD-54F6C529DEF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658E16DA-6321-4193-A17F-EB19A29D77A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3ABEE10E-4D5C-4CF0-A301-F1E2BD4624A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{3ABEE10E-4D5C-4CF0-A301-F1E2BD4624A5}"/>
   </bookViews>
   <sheets>
     <sheet name="SQL" sheetId="1" r:id="rId1"/>
-    <sheet name="CSS" sheetId="2" r:id="rId2"/>
+    <sheet name="CSS-Bootstrap" sheetId="2" r:id="rId2"/>
+    <sheet name="Web Overview" sheetId="3" r:id="rId3"/>
+    <sheet name="JSP &amp; JSPL" sheetId="4" r:id="rId4"/>
+    <sheet name="MVC" sheetId="5" r:id="rId5"/>
+    <sheet name="JDBC" sheetId="6" r:id="rId6"/>
+    <sheet name="Package" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,6 +28,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1031,8 +1044,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1048,7 +1061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="556260" y="2392680"/>
-          <a:ext cx="1066800" cy="396240"/>
+          <a:ext cx="1066800" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,7 +1094,14 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>số</a:t>
+            <a:t>số:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>VD: int, double...</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1099,8 +1119,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1116,7 +1136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1859280" y="2385060"/>
-          <a:ext cx="1066800" cy="396240"/>
+          <a:ext cx="1066800" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,7 +1169,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> văn bản</a:t>
+            <a:t> văn bản: varchar, char...</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1167,7 +1187,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1184,7 +1204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3063240" y="2385060"/>
-          <a:ext cx="1165860" cy="396240"/>
+          <a:ext cx="1165860" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1217,7 +1237,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> tháng </a:t>
+            <a:t> tháng: date, ... </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -1872,7 +1892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5417820" y="198120"/>
+          <a:off x="5417820" y="2941320"/>
           <a:ext cx="434340" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3564,6 +3584,3645 @@
         <a:xfrm flipV="1">
           <a:off x="8271510" y="1463040"/>
           <a:ext cx="0" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9FA3A7-7204-4066-BE96-E7C80DFC1699}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532120" y="6797040"/>
+          <a:ext cx="807720" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bootstrap</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{779FFBE1-5F0B-41F0-BD26-5241B96560EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="7696200"/>
+          <a:ext cx="3893820" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Bootstrap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> là 1 front-end framework:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Cung cấp những mẫu thiết kế sẵn dựa trên HTML, CSS.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Cung cấp khả năng tạo ra các trang web có thể responsive.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{823EE879-81DB-4230-993A-CE184E683E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6377940" y="7696200"/>
+          <a:ext cx="3124200" cy="716280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Có 2 cách nhúng bootstrap:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Nhúng qua CDN.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Nhúng trực tiếp bằng cách download về máy.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>331470</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4B1298-BCB3-4EE0-9F1A-458031DA269A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3379470" y="7056120"/>
+          <a:ext cx="2556510" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E13AEF8B-16FB-45E0-AFAB-2C1FEDA203D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935980" y="7056120"/>
+          <a:ext cx="2004060" cy="640080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C3F9244-108D-40D5-907F-6AB36F149893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="228600"/>
+          <a:ext cx="510540" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Web</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2AB859-9533-491B-A038-7E6FC5E35AA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="259080" y="746760"/>
+          <a:ext cx="2362200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Web động:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> là loại website mà phần nội dung có thể thay đổi theo thời gian, ngữ cảnh và sử dụng ngôn ngữ back-end (java, php...) và ngôn ngữ front-end</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB536060-444B-48C3-B7A8-C74DA743937F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3078480" y="739140"/>
+          <a:ext cx="2362200" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Web động:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> là loại website mà phần nội dung không thể thay đổi theo thời gian. Thường được viết bằng mã front-end (html, javascript...)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD278DDA-084A-42B4-8ABD-139AF9FE9BF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1440180" y="464820"/>
+          <a:ext cx="1383030" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>384810</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC06616-3FDA-4F0A-A2FB-8DD7122487AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2823210" y="464820"/>
+          <a:ext cx="1436370" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736772BF-A3A3-4882-B92E-E3C1108D89D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6004560" y="746760"/>
+          <a:ext cx="4533900" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Http:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hyper text tranfer protocol dùng để truyền tải dữ liệu giữa server và client.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Https: hyper text tranfer protocol secure: là http + mã hóa dữ liệu trong lúc truyền tải (chứng chỉ SSL).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A946DA6-C2EC-49F3-92D1-C2A1108F3F52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="274320" y="2026920"/>
+          <a:ext cx="4533900" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Servlet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>: là công nghệ được sử dụng để tạo ra các ứng dụng web động.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Vòng đời của Servlet :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Tải servlet class vào bộ nhớ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Tao đối tượng servlet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Gọi phương thức init.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Gọi phương thức service.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Gọi phương thức destroy.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF3A07B-6BE8-438B-B463-2CB35DA5B957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5501640" y="2019300"/>
+          <a:ext cx="2362200" cy="1775460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Post:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> chỉ được dùng khai báo method post trong thẻ html &lt;form&gt;. Được dùng để bảo mật và che dấu thông tin. Có thể gởi được dữ liệu lớn.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Get: được dùng khi truy cập bằng cách nhập trên URL, hoặc khi khai báo method get trong thẻ html &lt;form&gt;. Chỉ dùng để gửi dữ liệu text và có độ lớn là 1024</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC249C4-CD12-463C-B567-2A8A6A2E6F1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="388620"/>
+          <a:ext cx="3444240" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>JSP java server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> page: là ngôn ngữ back-end, bản chất giống serlet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Servlet được dùng để xử lí logic. code html trong java.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- JSP được dùng để xử lí giao diện. code java trong Html.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4974E27-17F8-410D-9421-AD5E538FA576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312420" y="1478280"/>
+          <a:ext cx="6096000" cy="1478280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>JSPL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> JSP Standard Tag Library: là thư viện thẻ chuẩn vs mục đích hỗ trợ lập trình trong JSP.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Có 5 nhóm thẻ chính:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Core: Nhóm thẻ cơ bản. (&lt;c:if&gt;, &lt;c:forEach&gt;, &lt;c:redirect&gt;, &lt;c:out&gt;, &lt;c:set&gt;, &lt;c:url&gt;...)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Format: định dạng ngày giờ. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;fmt:formatNumber&gt;,  &lt;fmt:timeZone&gt;, &lt;fmt:parseDate&gt;...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- SQL: tương tác với CSDL. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;sql:query&gt; ,  &lt;sql:update&gt; ,  &lt;sql:transaction &gt;...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Function: hàm có sẵn dùng để hỗ trợ. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fn:replace(),  fn:length(), fn:indexOf()...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- XML: làm việc với các file XML. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;x:out&gt; ,  &lt;x:set &gt;, &lt;x:parse&gt;...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962CF08A-9DB8-4623-9AD3-C9C172621A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3337560" y="297180"/>
+          <a:ext cx="1028700" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Mô</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hình MVC</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B920470-F40E-476F-99F3-AF45950E546C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144780" y="1104900"/>
+          <a:ext cx="2346960" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Model: là</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> phần ứng dụng giao tiếp với dữ liệu và xử lí logic (java bean).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58ECF237-F09E-46F7-9E84-C521A555C001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2682240" y="1104900"/>
+          <a:ext cx="2346960" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>View: là</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> phần giao diện người dùng, mhieemj vụ hiển thị và nhận yêu cầu từ người dùng (jsp, css, html).</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4533F6D6-D6B7-4564-8CEC-6B5AB314E60C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5387340" y="1104900"/>
+          <a:ext cx="2346960" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Controller: là</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> phần kết nối giữa model và view.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1BFF75-0E9C-481F-B76B-E892658F826F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1318260" y="586740"/>
+          <a:ext cx="2533650" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE44066-0F1B-4D17-8CE1-B784C8749E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3851910" y="586740"/>
+          <a:ext cx="3810" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C339F2C-E926-42D8-8E89-F7B94E5B0537}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3851910" y="586740"/>
+          <a:ext cx="2708910" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8195E7B-1177-4506-8058-C7CF6DBD8993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="2202180"/>
+          <a:ext cx="693420" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>View</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E9FE855-8F34-4103-9C0F-4A743BF75508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2636520" y="2209800"/>
+          <a:ext cx="807720" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Controller</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3CEF31E-70F1-4209-8401-292E432776AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4236720" y="1988820"/>
+          <a:ext cx="1767840" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Model</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Cylinder 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFF36D1-0E63-45BA-B92A-4E0C2F6E538A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6713220" y="2217420"/>
+          <a:ext cx="708660" cy="899160"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943E223D-C5C2-462C-8B69-716555B4D04C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1215390" y="2202180"/>
+          <a:ext cx="1413510" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA952EE-7737-480F-A1D1-F03988AA78C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3451860" y="2232660"/>
+          <a:ext cx="777240" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C6D42C-3920-427A-868B-3268CCA407A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="2232660"/>
+          <a:ext cx="716280" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DBA2DFF-1139-4EDB-A0A4-21C5A2127C5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5989320" y="2811780"/>
+          <a:ext cx="723900" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A67BD2-B8B7-46BD-AF1A-200587145BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3451860" y="2834640"/>
+          <a:ext cx="777240" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88772360-3D50-4F75-911A-0A03AB076609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1524000" y="2804160"/>
+          <a:ext cx="1112520" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{841E86AE-4E53-442F-808B-FE680137FB98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4450080" y="2385060"/>
+          <a:ext cx="464820" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4AAEB7-A070-42E4-8A9D-349C0BBE023C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5318760" y="2377440"/>
+          <a:ext cx="464820" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DAO</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF8105F-720C-4B08-A870-F889C8F04B47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4320540" y="2202180"/>
+          <a:ext cx="2217420" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BO Business</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Object: xử lí logic</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A734B99-1BF5-40C5-9C1E-1C2C98A62B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774180" y="2202180"/>
+          <a:ext cx="2697480" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>DAO Data Access Object: giao tiếp với CSDL</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA796908-1EDD-4358-A0BA-A4551BC2D764}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5429250" y="1577340"/>
+          <a:ext cx="1131570" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D0A5FD-C120-4A1C-BDA7-0246D161E515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6560820" y="1577340"/>
+          <a:ext cx="1562100" cy="624840"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45503A3C-C4CA-4F27-B026-81C1DEF46841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="160020"/>
+          <a:ext cx="1965960" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>JDBC: Java Database</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Connect là API cho phép kết nối với các chương trình viết bởi java với các hệ CSDL.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8173B81B-FDD5-47EE-BEF8-599F148FB399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="1836420"/>
+          <a:ext cx="4076700" cy="1935480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Các</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> thành phần chính của JDBC:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Driver Manager: quản lí các driver.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Driver: dùng để kết nối CSDL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Connection: biểu thị kết nối với CSDL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Statement: thực hiện truy vấn sql.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    + Statement: thực hiện các lệnh truy vấn AQL tĩnh.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    + PrepareStatement: thực hiện truy vấn có điều kiện.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>    + CallableStatement: thực hiện truy vấn với các Stored Procedure.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- ResultSet: biểu diễn kết quả do CSDL trả về.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- SQLException: xử lí ngoại lệ.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AD5708-C623-41C4-9708-079E2778ADEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5326380" y="1844040"/>
+          <a:ext cx="4076700" cy="1684020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Trình</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> tự làm việc của JDBC với CSDL:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Tạo kết nối với CSDL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Sử dụng driver tương ứng đến CSDL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- JBDC diver kết nối tới CSDL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Tạo kết nối với CSDL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Thực hiện truy vấn SQL.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- CSDL gửi trả dữ liệu thông qua Driver Manager.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Xử lí dữ liệu trả về.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Đóng kết nối.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0528ED8B-AA4A-47E8-AF59-5A746647EFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2762250" y="1028700"/>
+          <a:ext cx="4956810" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBEBE642-3C89-4BF0-90BE-67F923EBAA69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7364730" y="1028700"/>
+          <a:ext cx="354330" cy="784860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE1FD0D7-85DC-4403-A426-5C1B45FA2A24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9951720" y="1828800"/>
+          <a:ext cx="4076700" cy="1051560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Transaction:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> là 1 tiến trình xử lí gồm nhiều thực thi theo qui tắc. Tất cả đều đúng. Nếu 1 thực thi sai thì cả tiến trình sai.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- setAutoCommit(false): dùng để set chế độ không tự commit.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- commit() : kí các tiến trình đã thực hiện.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- rollback(): quay về trạng thái ban đầu.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610D0457-3411-4474-AF7D-D08E70139291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="1028700"/>
+          <a:ext cx="4271010" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA15A617-EE30-42D0-A314-B82B93AA51C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="198120"/>
+          <a:ext cx="3307080" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sản</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> phẩm khi chuyển giao cho khách hàng , người dùng thì bắt buộc phải đóng gói và đảm bảo sản phẩm luôn ở trạng thái sẵn sàng hoạt động.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E680E17A-E79C-4EB8-991D-62C1D14D4CB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="1203960"/>
+          <a:ext cx="2529840" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Có</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 2 hình thức đóng gói:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Standalone: chỉ có mã nguồn không có môi trường.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Self-contained: có mã nguồn và môi trường.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357D80A1-2753-4924-ACD2-F38DC7C6A078}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3436620" y="1211580"/>
+          <a:ext cx="2529840" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Sản</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> phẩm của đóng gói:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Jar file: đóng gói phần mềm, thư viện.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- War file: đóng gói ứng dụng.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9517C63-02AB-4B21-9129-A2D7C4B594EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6187440" y="1234440"/>
+          <a:ext cx="2529840" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Công</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> cụ để đóng gói:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Ant dùng XML.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Maven: cải tiến hơn Ant vẫn dùng XML.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>- Gradle: Sử dụng Groovy cải tiến hơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8BF562-7E90-4D56-821A-521AE5FAE32B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1943100" y="883920"/>
+          <a:ext cx="2750820" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4663B6B9-142D-495F-A922-B0C083BC1481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="883920"/>
+          <a:ext cx="7620" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D169AF5C-36AE-4331-9B67-C9B7591212BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693920" y="883920"/>
+          <a:ext cx="2758440" cy="350520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3891,7 +7550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A0731E-0200-4DAB-B033-52690223A580}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3920,4 +7579,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B98A8D-EE74-4F8B-BEFB-34C1A348EBFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E351562C-98D1-4E86-ABCE-030FB499F24D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCA2BAD-EB28-415F-BFE7-42B74E22BB42}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5CE5DE-1A88-4B2C-B586-648AD5F85C47}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1E88E4-E80A-4042-A748-799D68746970}">
+  <dimension ref="K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>